--- a/va_facility_data_2025-02-20/Tazewell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tazewell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tazewell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tazewell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc31fc46647c94a3aa89504d1418580b0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra2824843a63c45fe9ab9fe99a14cf31d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R095c560c692e4bb980bcfa1816ea6a36"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4839a19944a44264bf1d2f7186411b87"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R316eaed7133542cda0c11b710eba22e4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra19aa68ba30b453b839a88bcee814a8e"/>
   </x:sheets>
 </x:workbook>
 </file>
